--- a/spliced/walkingToRunning/2023-03-30_14-25-40/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-25-40/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5500836372375488</v>
+        <v>13.38702964782715</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.08346462249756</v>
+        <v>-17.40622901916504</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.06772136688232</v>
+        <v>-7.910804748535156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.728771805763245</v>
+        <v>5.027063369750977</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.532985687255859</v>
+        <v>-9.992935180664062</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.297476768493652</v>
+        <v>-3.668930053710938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.154151678085327</v>
+        <v>3.064489126205444</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.908271789550781</v>
+        <v>-10.04933261871338</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.69534873962402</v>
+        <v>-9.655683517456056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13.38702964782715</v>
+        <v>-11.23465538024902</v>
       </c>
       <c r="B5" t="n">
-        <v>-17.40622901916504</v>
+        <v>-9.59632682800293</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.910804748535156</v>
+        <v>-12.52409744262695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.027063369750977</v>
+        <v>0.3307132720947265</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.992935180664062</v>
+        <v>-10.98133277893066</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.668930053710938</v>
+        <v>-7.000489711761475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.064489126205444</v>
+        <v>15.33979511260986</v>
       </c>
       <c r="B7" t="n">
-        <v>-10.04933261871338</v>
+        <v>-22.00781440734864</v>
       </c>
       <c r="C7" t="n">
-        <v>-9.655683517456056</v>
+        <v>-10.50343608856201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-11.23465538024902</v>
+        <v>2.999754428863525</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.59632682800293</v>
+        <v>-15.48295783996582</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.52409744262695</v>
+        <v>6.745935916900635</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3307132720947265</v>
+        <v>-6.992471218109131</v>
       </c>
       <c r="B9" t="n">
-        <v>-10.98133277893066</v>
+        <v>1.269168853759766</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.000489711761475</v>
+        <v>-5.262283325195312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.33979511260986</v>
+        <v>1.578595161437989</v>
       </c>
       <c r="B10" t="n">
-        <v>-22.00781440734864</v>
+        <v>-59.7728385925293</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.50343608856201</v>
+        <v>11.89765167236328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.999754428863525</v>
+        <v>-58.78142929077149</v>
       </c>
       <c r="B11" t="n">
-        <v>-15.48295783996582</v>
+        <v>-6.325687885284424</v>
       </c>
       <c r="C11" t="n">
-        <v>6.745935916900635</v>
+        <v>-18.43083572387696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-6.992471218109131</v>
+        <v>1.685664176940918</v>
       </c>
       <c r="B12" t="n">
-        <v>1.269168853759766</v>
+        <v>-10.93907737731934</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.262283325195312</v>
+        <v>-4.804312705993652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.578595161437989</v>
+        <v>20.54140090942383</v>
       </c>
       <c r="B13" t="n">
-        <v>-59.7728385925293</v>
+        <v>-30.76116371154785</v>
       </c>
       <c r="C13" t="n">
-        <v>11.89765167236328</v>
+        <v>-21.73070907592773</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-58.78142929077149</v>
+        <v>-8.643145561218262</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.325687885284424</v>
+        <v>-12.25782108306885</v>
       </c>
       <c r="C14" t="n">
-        <v>-18.43083572387696</v>
+        <v>13.20825862884522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.685664176940918</v>
+        <v>-1.923628926277161</v>
       </c>
       <c r="B15" t="n">
-        <v>-10.93907737731934</v>
+        <v>-1.592215418815613</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.804312705993652</v>
+        <v>-5.497756004333496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20.54140090942383</v>
+        <v>23.09793281555176</v>
       </c>
       <c r="B16" t="n">
-        <v>-30.76116371154785</v>
+        <v>-65.25662231445312</v>
       </c>
       <c r="C16" t="n">
-        <v>-21.73070907592773</v>
+        <v>1.447998523712158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.643145561218262</v>
+        <v>13.40246772766113</v>
       </c>
       <c r="B17" t="n">
-        <v>-12.25782108306885</v>
+        <v>-2.679043769836426</v>
       </c>
       <c r="C17" t="n">
-        <v>13.20825862884522</v>
+        <v>-17.18461418151855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.923628926277161</v>
+        <v>-13.39319038391113</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.592215418815613</v>
+        <v>-15.08681869506836</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.497756004333496</v>
+        <v>-24.70808029174805</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23.09793281555176</v>
+        <v>47.38216018676758</v>
       </c>
       <c r="B19" t="n">
-        <v>-65.25662231445312</v>
+        <v>-81.48814392089844</v>
       </c>
       <c r="C19" t="n">
-        <v>1.447998523712158</v>
+        <v>17.70297622680664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.40246772766113</v>
+        <v>-2.278211832046509</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.679043769836426</v>
+        <v>0.415550947189331</v>
       </c>
       <c r="C20" t="n">
-        <v>-17.18461418151855</v>
+        <v>-10.76592063903809</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-13.39319038391113</v>
+        <v>13.07781982421875</v>
       </c>
       <c r="B21" t="n">
-        <v>-15.08681869506836</v>
+        <v>-39.51717376708984</v>
       </c>
       <c r="C21" t="n">
-        <v>-24.70808029174805</v>
+        <v>42.08852005004883</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-72.39402770996094</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-27.50520896911621</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-27.84894561767578</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-8.723164558410645</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-8.500687599182129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.66308975219727</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-7.880284786224365</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-21.83874320983887</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.497885704040527</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-9.739827156066896</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.5102891325950623</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.436953544616699</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.781617164611816</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.22575092315674</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.437583446502685</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34.05283355712891</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-58.47340393066406</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.97058296203613</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-11.52477169036865</v>
+      </c>
+      <c r="B28" t="n">
+        <v>17.23179626464844</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.970066547393799</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-24.07291412353516</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-20.21802139282227</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-17.61478233337402</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>18.03611946105957</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-66.51955413818359</v>
+      </c>
+      <c r="C30" t="n">
+        <v>48.28945922851562</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12.77012634277344</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.439512729644775</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.52412605285644</v>
       </c>
     </row>
   </sheetData>
